--- a/Doc/G6-POS_Project_Tracking.xlsx
+++ b/Doc/G6-POS_Project_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Backup-Dev\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F801A13-1F06-4AD7-950A-1E4005FB096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC2C7D-FE50-4DDB-808F-B676327FEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1440" windowWidth="17700" windowHeight="10308" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="744" windowWidth="17700" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -349,7 +349,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -450,9 +450,6 @@
     <t>The customer and user can contact with shop here.</t>
   </si>
   <si>
-    <t>Linh</t>
-  </si>
-  <si>
     <t>Thành</t>
   </si>
   <si>
@@ -471,9 +468,6 @@
     <t>User can see the detail of product</t>
   </si>
   <si>
-    <t>Dương Tùng</t>
-  </si>
-  <si>
     <t>Checkout</t>
   </si>
   <si>
@@ -483,12 +477,6 @@
     <t>This is a screen which allows the user to enter (email or username) &amp; password to login; on this page, there are also options for user to register new information or reset the password for the case s/he forget it</t>
   </si>
   <si>
-    <t>A Hiếu</t>
-  </si>
-  <si>
-    <t>T Tùng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shop </t>
   </si>
   <si>
@@ -582,9 +570,6 @@
     <t>Update product</t>
   </si>
   <si>
-    <t>Tùng</t>
-  </si>
-  <si>
     <t>Home</t>
   </si>
   <si>
@@ -628,6 +613,64 @@
   </si>
   <si>
     <t>Show all account in the system. (Admin can CRUD account)</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>User, Admin, Employee</t>
+  </si>
+  <si>
+    <t>Customer, Employee</t>
+  </si>
+  <si>
+    <t>Admin, Employee</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Create comment</t>
+  </si>
+  <si>
+    <t>View comment</t>
+  </si>
+  <si>
+    <t>Update comment</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>View Order Change</t>
+  </si>
+  <si>
+    <t>Customer, Employee,
+Admin</t>
+  </si>
+  <si>
+    <t>Customer, Guest, Employee, Admin</t>
+  </si>
+  <si>
+    <t>Customer, Employee, Admin</t>
+  </si>
+  <si>
+    <t>Admin,Employee</t>
+  </si>
+  <si>
+    <t>This function allows actors to view history of order’s status</t>
+  </si>
+  <si>
+    <t>This function allows actors to delete their comment when they have logged into the system and comment before</t>
+  </si>
+  <si>
+    <t>This function allows users to edit their comment when they have logged into the system and comment before</t>
+  </si>
+  <si>
+    <t>This function allows actors to view comment of everybody</t>
+  </si>
+  <si>
+    <t>This function allows commenting when an actor has logged into the system.</t>
   </si>
 </sst>
 </file>
@@ -780,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -839,9 +882,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -873,6 +913,24 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,11 +1152,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1168,20 +1226,26 @@
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
@@ -1194,144 +1258,186 @@
         <v>29</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="C7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="D8" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="F8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="F9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+      <c r="D10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1339,26 +1445,32 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1366,14 +1478,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="4" t="s">
@@ -1381,7 +1495,7 @@
       </c>
       <c r="H12" s="14"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1389,45 +1503,45 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>74</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1435,7 +1549,7 @@
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1443,22 +1557,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1466,22 +1584,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1489,26 +1611,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="23"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1516,22 +1638,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>63</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
@@ -1539,22 +1665,26 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="9"/>
+        <v>72</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="23"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -1562,22 +1692,26 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="14"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
@@ -1585,45 +1719,53 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J21" s="22"/>
+    </row>
+    <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="23"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -1631,65 +1773,196 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="23"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="34">
+        <v>20</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
+        <v>21</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+    </row>
+    <row r="27" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>22</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>23</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>24</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E24" xr:uid="{B8AA5C6C-6EE6-6E48-9C21-DBA13AAA45A8}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H24 H4:H5" xr:uid="{B3D8A64A-CB11-4797-A392-DB264C68B062}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H24" xr:uid="{B3D8A64A-CB11-4797-A392-DB264C68B062}">
       <formula1>"Pending, Doing, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G24 G4:G5" xr:uid="{A3D92164-A9A6-4CB0-B3EF-B4CECA4C7362}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G29" xr:uid="{A3D92164-A9A6-4CB0-B3EF-B4CECA4C7362}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1700,9 +1973,9 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1781,21 +2054,21 @@
         <v>14</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="26"/>
+      <c r="G6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
@@ -1803,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>29</v>
@@ -1811,170 +2084,170 @@
       <c r="D7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>80</v>
+      <c r="E7" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="G7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="25"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="26"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>4</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>5</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>6</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>7</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="26"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>4</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>5</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
-        <v>6</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
-        <v>7</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="27"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1998,7 +2271,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
@@ -2073,16 +2346,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>79</v>
+        <v>55</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2099,16 +2372,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -2123,16 +2396,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -2147,16 +2420,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -2171,16 +2444,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -2195,16 +2468,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -2234,7 +2507,7 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
@@ -2309,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>13</v>
@@ -2333,16 +2606,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -2357,16 +2630,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>13</v>
@@ -2381,16 +2654,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>13</v>
@@ -2405,16 +2678,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
@@ -2429,16 +2702,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
@@ -2453,16 +2726,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>13</v>
@@ -2477,16 +2750,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>13</v>
@@ -2514,11 +2787,11 @@
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2585,34 +2858,144 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+    <row r="7" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I7" s="4"/>
     </row>
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>3</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
+        <v>4</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>5</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="22"/>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:H7" xr:uid="{020D1B51-CD3A-2943-AB65-9B13706510E3}">
-      <formula1>"Pending, Doing, Done"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F7" xr:uid="{0794C8CF-BD46-074C-9567-48DDEA4001EF}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:H10" xr:uid="{F4023A24-A883-4B62-8953-D1CDDE7D2CB4}">
       <formula1>"To Do, Doing, Done"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Doc/G6-POS_Project_Tracking.xlsx
+++ b/Doc/G6-POS_Project_Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRING23\SWP391\Backup-Dev\Project-OnlineShop\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC2C7D-FE50-4DDB-808F-B676327FEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6B09F1-BEF8-4127-8694-A46575DD5586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="744" windowWidth="17700" windowHeight="10308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="18" r:id="rId1"/>
@@ -823,7 +823,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -917,9 +917,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1155,8 +1152,8 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1822,19 +1819,19 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>20</v>
       </c>
       <c r="B25" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="24" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="23" t="s">
@@ -1848,7 +1845,7 @@
       <c r="J25" s="32"/>
     </row>
     <row r="26" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>21</v>
       </c>
       <c r="B26" s="31" t="s">
@@ -1860,7 +1857,7 @@
       <c r="D26" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="24" t="s">
         <v>105</v>
       </c>
       <c r="F26" s="23" t="s">
@@ -1886,7 +1883,7 @@
       <c r="D27" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="24" t="s">
         <v>104</v>
       </c>
       <c r="F27" s="23" t="s">
@@ -1912,7 +1909,7 @@
       <c r="D28" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="24" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="23" t="s">
@@ -1938,7 +1935,7 @@
       <c r="D29" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="24" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="23" t="s">
@@ -2791,7 +2788,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2862,7 @@
       <c r="B6" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -2913,7 +2910,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -2940,7 +2937,7 @@
       <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -2967,7 +2964,7 @@
       <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="33">
         <v>5</v>
       </c>
       <c r="B10" s="31" t="s">
